--- a/codigo_final_organizado/analisis/resultados_diff_d/P5_Significancia_Diferenciacion.xlsx
+++ b/codigo_final_organizado/analisis/resultados_diff_d/P5_Significancia_Diferenciacion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4.037038286045258</v>
+        <v>672.4023510327315</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>831.4496306055113</v>
+        <v>80495.11358339299</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>137457.9786852901</v>
+        <v>5359816.850524499</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>14699044.6779298</v>
+        <v>295809610.0929332</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1219358185.036815</v>
+        <v>312143251720.6215</v>
       </c>
     </row>
     <row r="7">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -571,17 +571,17 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>59290634538.96345</v>
+        <v>6161058121932450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -590,17 +590,17 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3224134876194.708</v>
+        <v>173.1504758681945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -609,17 +609,17 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>130126481644690.8</v>
+        <v>18854.5491182832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -628,17 +628,17 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>5217110204594089</v>
+        <v>1369903.279247296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.651073573369209e+17</v>
+        <v>82259383.80168062</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1.232531909036055e-148</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7796322839279297</v>
+        <v>105051468835.2338</v>
       </c>
     </row>
     <row r="13">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -685,17 +685,17 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>154.2030963402497</v>
+        <v>2542089552315570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -704,17 +704,17 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>31026.25273704037</v>
+        <v>737.3709184313074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -723,17 +723,17 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>3002968.37787259</v>
+        <v>85624.0977091034</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -742,17 +742,17 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>286079892.0323628</v>
+        <v>5547938.473096446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>16056861551.84496</v>
+        <v>305183420.9536085</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -780,17 +780,17 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>906434265101.6567</v>
+        <v>319139207222.3962</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -799,17 +799,17 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>41214756856857.02</v>
+        <v>6266099158101807</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -818,17 +818,17 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1711171329901600</v>
+        <v>442.7675472260805</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -837,17 +837,17 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>5.805667521495604e+16</v>
+        <v>66038.3536827256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -856,17 +856,17 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>5.155999369704637</v>
+        <v>4784834.455793509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -875,17 +875,17 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>905.7433310787646</v>
+        <v>267177072.3957756</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -894,17 +894,17 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>146984.6436495772</v>
+        <v>298341388609.2552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -913,17 +913,17 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>15376861.89820151</v>
+        <v>6166457644008992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -932,17 +932,17 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1274182217.965426</v>
+        <v>159.2216903206935</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -951,17 +951,17 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>62125795487.35683</v>
+        <v>18360.36419464454</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -970,17 +970,17 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>3343148321849.548</v>
+        <v>1278748.240711008</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -989,17 +989,17 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>134425620517161.1</v>
+        <v>71855956.81677911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1008,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>5352380121658411</v>
+        <v>93932753636.93414</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1027,36 +1027,36 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.68623553215976e+17</v>
+        <v>2423000373250930</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>6.352278490344201e-117</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4862742391096152</v>
+        <v>10.80404872730672</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1065,17 +1065,17 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>547.6200369152934</v>
+        <v>1942.379151017059</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1084,17 +1084,17 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>103535.1412090417</v>
+        <v>152406.9218935148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1103,17 +1103,17 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>12505519.46783299</v>
+        <v>9029845.68335969</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1122,17 +1122,17 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1121362156.524034</v>
+        <v>12528700661.60464</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1141,17 +1141,17 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>57397900736.96349</v>
+        <v>323366743740360.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1160,17 +1160,17 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>3198172327927.079</v>
+        <v>68.60308148047356</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1179,17 +1179,17 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>127866422518587</v>
+        <v>10458.00484584174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1198,17 +1198,17 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>5099502375282734</v>
+        <v>818965.3514026523</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1217,17 +1217,17 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1.639702502519929e+17</v>
+        <v>48950012.455033</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1236,17 +1236,17 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2.489230269572821</v>
+        <v>63154299185.79153</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1255,17 +1255,17 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>183.7892267311249</v>
+        <v>1624205872213174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1274,17 +1274,17 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>30954.60306174929</v>
+        <v>230.1925501615899</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1293,17 +1293,17 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>2968431.228210887</v>
+        <v>35004.5859614983</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1312,17 +1312,17 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>276939479.20476</v>
+        <v>2673802.401938382</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1331,13 +1331,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>14486800281.89623</v>
+        <v>158334992.8794048</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1350,17 +1350,17 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>776391062172.2272</v>
+        <v>197626640263.8918</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1369,93 +1369,93 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>34862782408035.29</v>
+        <v>4372285341744596</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.3218473858930891</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1512874629063574</v>
+        <v>0.004417654885251698</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.2183235865990834</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>5.23633761547529e+16</v>
+        <v>0.006117972622872947</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>1.183912642911533e-37</v>
+        <v>7.10655739120055e-05</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2682501929585362</v>
+        <v>0.04459875911136812</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2.307764778781922e-107</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>11.03408761237557</v>
+        <v>0.616283798304721</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1464,710 +1464,26 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>2426.501067264728</v>
+        <v>2331.071570424217</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1.847378780212987e-289</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>293716.6995296201</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>28135060.40016516</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1580201470.079228</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>96016489860.93382</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4357203437041.88</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>193613319871780</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>10</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6754973200477786</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.954967898029563e-34</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.2664485208616298</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>10.99908467117483</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>3</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2412.856676320245</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>4</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>291716.7818608282</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>27786763.55304869</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>6</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1591612661.012663</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>7</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>96570053462.83049</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>8</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4312185823768.597</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>9</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>194803334990828.5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>10</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>6684657973382264</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4.033677850151131e-151</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.8073192236809255</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>251.1389336784453</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>3</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>55931.00262110524</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>4</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>6578965.530199743</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>5</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>611388998.6329198</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>6</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>32828647550.31955</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>7</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1844531556185.504</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>8</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>80189270382683.62</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>9</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3287581248539820</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>10</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.111131864776919e+17</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.9757291941517561</v>
-      </c>
-      <c r="D82" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.0007891082348140399</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.8088159090454877</v>
-      </c>
-      <c r="D83" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.0005039606504554928</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>3</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.201884898709349</v>
-      </c>
-      <c r="D84" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.008477953638330704</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>4</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.001959187888291508</v>
-      </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.02539170205864871</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>5</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>85.19254916801452</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>6</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>6141.637439512501</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>305597.1076202255</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>12538806.62527953</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>9</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>701697462.9888048</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>10</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>20767446446.34563</v>
+        <v>149681907.826399</v>
       </c>
     </row>
   </sheetData>
